--- a/data/ParteI/data_sub.xlsx
+++ b/data/ParteI/data_sub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\ParteI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9E22C4-B349-4D94-8A52-4FE2AACA8433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F344508D-4116-4DDF-ABE3-8A5BA62B8D05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trials_noTime" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,15 @@
     <sheet name="trials_available" sheetId="9" r:id="rId4"/>
     <sheet name="trials_time_available" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -861,22 +869,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,10 +920,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1355,31 +1363,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="62" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="60" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="63"/>
@@ -1387,70 +1395,70 @@
       <c r="V1" s="63"/>
       <c r="W1" s="63"/>
       <c r="X1" s="64"/>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="58" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58" t="s">
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58" t="s">
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
     </row>
     <row r="2" spans="1:72" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
@@ -1489,114 +1497,114 @@
         <v>16</v>
       </c>
       <c r="R2" s="59"/>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="60" t="s">
+      <c r="V2" s="62"/>
+      <c r="W2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="57" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57" t="s">
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57" t="s">
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57" t="s">
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57" t="s">
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57" t="s">
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57" t="s">
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57" t="s">
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57" t="s">
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57" t="s">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57" t="s">
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57" t="s">
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57" t="s">
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57" t="s">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57" t="s">
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57" t="s">
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57" t="s">
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57" t="s">
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57" t="s">
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="57"/>
+      <c r="BT2" s="58"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -7996,6 +8004,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="BO1:BT1"/>
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="BQ2:BR2"/>
@@ -8012,38 +8052,6 @@
     <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="BC2:BD2"/>
     <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8192,42 +8200,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:160" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
       <c r="AE1" s="69" t="s">
         <v>30</v>
       </c>
@@ -8240,150 +8248,150 @@
       <c r="AL1" s="69"/>
       <c r="AM1" s="69"/>
       <c r="AN1" s="69"/>
-      <c r="AO1" s="58" t="s">
+      <c r="AO1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58" t="s">
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58" t="s">
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58" t="s">
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57"/>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
+      <c r="CM1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
-      <c r="CS1" s="58"/>
-      <c r="CT1" s="58"/>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58" t="s">
+      <c r="CN1" s="57"/>
+      <c r="CO1" s="57"/>
+      <c r="CP1" s="57"/>
+      <c r="CQ1" s="57"/>
+      <c r="CR1" s="57"/>
+      <c r="CS1" s="57"/>
+      <c r="CT1" s="57"/>
+      <c r="CU1" s="57"/>
+      <c r="CV1" s="57"/>
+      <c r="CW1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="CX1" s="58"/>
-      <c r="CY1" s="58"/>
-      <c r="CZ1" s="58"/>
-      <c r="DA1" s="58"/>
-      <c r="DB1" s="58"/>
-      <c r="DC1" s="58"/>
-      <c r="DD1" s="58"/>
-      <c r="DE1" s="58"/>
-      <c r="DF1" s="58"/>
-      <c r="DG1" s="58" t="s">
+      <c r="CX1" s="57"/>
+      <c r="CY1" s="57"/>
+      <c r="CZ1" s="57"/>
+      <c r="DA1" s="57"/>
+      <c r="DB1" s="57"/>
+      <c r="DC1" s="57"/>
+      <c r="DD1" s="57"/>
+      <c r="DE1" s="57"/>
+      <c r="DF1" s="57"/>
+      <c r="DG1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="DH1" s="58"/>
-      <c r="DI1" s="58"/>
-      <c r="DJ1" s="58"/>
-      <c r="DK1" s="58"/>
-      <c r="DL1" s="58"/>
-      <c r="DM1" s="58"/>
-      <c r="DN1" s="58"/>
-      <c r="DO1" s="58"/>
-      <c r="DP1" s="58"/>
-      <c r="DQ1" s="58" t="s">
+      <c r="DH1" s="57"/>
+      <c r="DI1" s="57"/>
+      <c r="DJ1" s="57"/>
+      <c r="DK1" s="57"/>
+      <c r="DL1" s="57"/>
+      <c r="DM1" s="57"/>
+      <c r="DN1" s="57"/>
+      <c r="DO1" s="57"/>
+      <c r="DP1" s="57"/>
+      <c r="DQ1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="DR1" s="58"/>
-      <c r="DS1" s="58"/>
-      <c r="DT1" s="58"/>
-      <c r="DU1" s="58"/>
-      <c r="DV1" s="58"/>
-      <c r="DW1" s="58"/>
-      <c r="DX1" s="58"/>
-      <c r="DY1" s="58"/>
-      <c r="DZ1" s="58"/>
-      <c r="EA1" s="58" t="s">
+      <c r="DR1" s="57"/>
+      <c r="DS1" s="57"/>
+      <c r="DT1" s="57"/>
+      <c r="DU1" s="57"/>
+      <c r="DV1" s="57"/>
+      <c r="DW1" s="57"/>
+      <c r="DX1" s="57"/>
+      <c r="DY1" s="57"/>
+      <c r="DZ1" s="57"/>
+      <c r="EA1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="EB1" s="58"/>
-      <c r="EC1" s="58"/>
-      <c r="ED1" s="58"/>
-      <c r="EE1" s="58"/>
-      <c r="EF1" s="58"/>
-      <c r="EG1" s="58"/>
-      <c r="EH1" s="58"/>
-      <c r="EI1" s="58"/>
-      <c r="EJ1" s="58"/>
-      <c r="EK1" s="58" t="s">
+      <c r="EB1" s="57"/>
+      <c r="EC1" s="57"/>
+      <c r="ED1" s="57"/>
+      <c r="EE1" s="57"/>
+      <c r="EF1" s="57"/>
+      <c r="EG1" s="57"/>
+      <c r="EH1" s="57"/>
+      <c r="EI1" s="57"/>
+      <c r="EJ1" s="57"/>
+      <c r="EK1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="EL1" s="58"/>
-      <c r="EM1" s="58"/>
-      <c r="EN1" s="58"/>
-      <c r="EO1" s="58"/>
-      <c r="EP1" s="58"/>
-      <c r="EQ1" s="58"/>
-      <c r="ER1" s="58"/>
-      <c r="ES1" s="58"/>
-      <c r="ET1" s="58"/>
-      <c r="EU1" s="58" t="s">
+      <c r="EL1" s="57"/>
+      <c r="EM1" s="57"/>
+      <c r="EN1" s="57"/>
+      <c r="EO1" s="57"/>
+      <c r="EP1" s="57"/>
+      <c r="EQ1" s="57"/>
+      <c r="ER1" s="57"/>
+      <c r="ES1" s="57"/>
+      <c r="ET1" s="57"/>
+      <c r="EU1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="EV1" s="58"/>
-      <c r="EW1" s="58"/>
-      <c r="EX1" s="58"/>
-      <c r="EY1" s="58"/>
-      <c r="EZ1" s="58"/>
-      <c r="FA1" s="58"/>
-      <c r="FB1" s="58"/>
-      <c r="FC1" s="58"/>
-      <c r="FD1" s="58"/>
+      <c r="EV1" s="57"/>
+      <c r="EW1" s="57"/>
+      <c r="EX1" s="57"/>
+      <c r="EY1" s="57"/>
+      <c r="EZ1" s="57"/>
+      <c r="FA1" s="57"/>
+      <c r="FB1" s="57"/>
+      <c r="FC1" s="57"/>
+      <c r="FD1" s="57"/>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -21995,6 +22003,45 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="CW1:DF1"/>
+    <mergeCell ref="CW2:DA2"/>
+    <mergeCell ref="DB2:DF2"/>
+    <mergeCell ref="CC1:CL1"/>
+    <mergeCell ref="CC2:CG2"/>
+    <mergeCell ref="CH2:CL2"/>
+    <mergeCell ref="CM1:CV1"/>
+    <mergeCell ref="CM2:CQ2"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO1:AX1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY1:BH1"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="BS1:CB1"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="BI1:BR1"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="DG1:DP1"/>
+    <mergeCell ref="DG2:DK2"/>
+    <mergeCell ref="DL2:DP2"/>
+    <mergeCell ref="DQ1:DZ1"/>
+    <mergeCell ref="DQ2:DU2"/>
+    <mergeCell ref="DV2:DZ2"/>
     <mergeCell ref="EU1:FD1"/>
     <mergeCell ref="EU2:EY2"/>
     <mergeCell ref="EZ2:FD2"/>
@@ -22004,45 +22051,6 @@
     <mergeCell ref="EK1:ET1"/>
     <mergeCell ref="EK2:EO2"/>
     <mergeCell ref="EP2:ET2"/>
-    <mergeCell ref="DG1:DP1"/>
-    <mergeCell ref="DG2:DK2"/>
-    <mergeCell ref="DL2:DP2"/>
-    <mergeCell ref="DQ1:DZ1"/>
-    <mergeCell ref="DQ2:DU2"/>
-    <mergeCell ref="DV2:DZ2"/>
-    <mergeCell ref="BS1:CB1"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="BI1:BR1"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="AO1:AX1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="AY1:BH1"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="CW1:DF1"/>
-    <mergeCell ref="CW2:DA2"/>
-    <mergeCell ref="DB2:DF2"/>
-    <mergeCell ref="CC1:CL1"/>
-    <mergeCell ref="CC2:CG2"/>
-    <mergeCell ref="CH2:CL2"/>
-    <mergeCell ref="CM1:CV1"/>
-    <mergeCell ref="CM2:CQ2"/>
-    <mergeCell ref="CR2:CV2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -22170,39 +22178,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="62" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="60" t="s">
         <v>30</v>
       </c>
       <c r="Z1" s="63"/>
@@ -22210,110 +22218,110 @@
       <c r="AB1" s="63"/>
       <c r="AC1" s="63"/>
       <c r="AD1" s="64"/>
-      <c r="AE1" s="58" t="s">
+      <c r="AE1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="58" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="75" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75" t="s">
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="58" t="s">
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58" t="s">
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58" t="s">
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58" t="s">
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58" t="s">
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57"/>
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58" t="s">
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
+      <c r="CM1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
+      <c r="CN1" s="57"/>
+      <c r="CO1" s="57"/>
+      <c r="CP1" s="57"/>
+      <c r="CQ1" s="57"/>
+      <c r="CR1" s="57"/>
       <c r="CS1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="CT1" s="58"/>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58"/>
-      <c r="CX1" s="58"/>
+      <c r="CT1" s="57"/>
+      <c r="CU1" s="57"/>
+      <c r="CV1" s="57"/>
+      <c r="CW1" s="57"/>
+      <c r="CX1" s="57"/>
       <c r="CY1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="CZ1" s="58"/>
-      <c r="DA1" s="58"/>
-      <c r="DB1" s="58"/>
-      <c r="DC1" s="58"/>
-      <c r="DD1" s="58"/>
+      <c r="CZ1" s="57"/>
+      <c r="DA1" s="57"/>
+      <c r="DB1" s="57"/>
+      <c r="DC1" s="57"/>
+      <c r="DD1" s="57"/>
     </row>
     <row r="2" spans="1:108" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
@@ -22364,174 +22372,174 @@
         <v>16</v>
       </c>
       <c r="X2" s="59"/>
-      <c r="Y2" s="60" t="s">
+      <c r="Y2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="60" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="60" t="s">
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57" t="s">
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57" t="s">
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="57" t="s">
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57" t="s">
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="74" t="s">
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74" t="s">
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74" t="s">
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74" t="s">
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74" t="s">
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="57" t="s">
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57" t="s">
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57" t="s">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57" t="s">
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57" t="s">
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57" t="s">
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57" t="s">
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57" t="s">
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57" t="s">
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57" t="s">
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57" t="s">
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57" t="s">
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57" t="s">
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57" t="s">
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57" t="s">
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57" t="s">
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57" t="s">
+      <c r="CJ2" s="58"/>
+      <c r="CK2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CL2" s="57"/>
-      <c r="CM2" s="57" t="s">
+      <c r="CL2" s="58"/>
+      <c r="CM2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="CN2" s="57"/>
-      <c r="CO2" s="57" t="s">
+      <c r="CN2" s="58"/>
+      <c r="CO2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CP2" s="57"/>
-      <c r="CQ2" s="57" t="s">
+      <c r="CP2" s="58"/>
+      <c r="CQ2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CR2" s="57"/>
-      <c r="CS2" s="61" t="s">
+      <c r="CR2" s="58"/>
+      <c r="CS2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="CT2" s="57"/>
-      <c r="CU2" s="57" t="s">
+      <c r="CT2" s="58"/>
+      <c r="CU2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CV2" s="57"/>
-      <c r="CW2" s="57" t="s">
+      <c r="CV2" s="58"/>
+      <c r="CW2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CX2" s="57"/>
-      <c r="CY2" s="61" t="s">
+      <c r="CX2" s="58"/>
+      <c r="CY2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="CZ2" s="57"/>
-      <c r="DA2" s="57" t="s">
+      <c r="CZ2" s="58"/>
+      <c r="DA2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="DB2" s="57"/>
-      <c r="DC2" s="57" t="s">
+      <c r="DB2" s="58"/>
+      <c r="DC2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="DD2" s="57"/>
+      <c r="DD2" s="58"/>
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -32277,6 +32285,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="CY1:DD1"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="CA1:CF1"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM1:CR1"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="CS1:CX1"/>
     <mergeCell ref="CS2:CT2"/>
     <mergeCell ref="CU2:CV2"/>
@@ -32293,62 +32357,6 @@
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BO1:BT1"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU1:BZ1"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CY1:DD1"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="CA1:CF1"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG1:CL1"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CM1:CR1"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32358,8 +32366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBC8319-91E7-4834-9A58-BC009E9BED74}">
   <dimension ref="A1:CL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32457,39 +32465,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="62" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="60" t="s">
         <v>30</v>
       </c>
       <c r="Z1" s="63"/>
@@ -32497,86 +32505,86 @@
       <c r="AB1" s="63"/>
       <c r="AC1" s="63"/>
       <c r="AD1" s="64"/>
-      <c r="AE1" s="58" t="s">
+      <c r="AE1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="58" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="75" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75" t="s">
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="58" t="s">
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58" t="s">
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58" t="s">
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
       <c r="CA1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57"/>
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
       <c r="CG1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
     </row>
     <row r="2" spans="1:90" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
@@ -32627,138 +32635,138 @@
         <v>16</v>
       </c>
       <c r="X2" s="59"/>
-      <c r="Y2" s="60" t="s">
+      <c r="Y2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="60" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="60" t="s">
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57" t="s">
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57" t="s">
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="57" t="s">
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57" t="s">
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="74" t="s">
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74" t="s">
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74" t="s">
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74" t="s">
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74" t="s">
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="57" t="s">
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57" t="s">
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57" t="s">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57" t="s">
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57" t="s">
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57" t="s">
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57" t="s">
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57" t="s">
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57" t="s">
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57" t="s">
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57" t="s">
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="61" t="s">
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57" t="s">
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57" t="s">
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="61" t="s">
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57" t="s">
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57" t="s">
+      <c r="CJ2" s="58"/>
+      <c r="CK2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CL2" s="57"/>
+      <c r="CL2" s="58"/>
     </row>
     <row r="3" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -41210,21 +41218,39 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="BO1:BT1"/>
-    <mergeCell ref="BU1:BZ1"/>
-    <mergeCell ref="CA1:CF1"/>
-    <mergeCell ref="CG1:CL1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -41237,39 +41263,21 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="CA1:CF1"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41279,8 +41287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A6F91-4BAA-4BB7-86B3-AC32FFB5EEB0}">
   <dimension ref="A1:DP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1:DP1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41386,42 +41394,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
       <c r="AE1" s="69" t="s">
         <v>30</v>
       </c>
@@ -41434,102 +41442,102 @@
       <c r="AL1" s="69"/>
       <c r="AM1" s="69"/>
       <c r="AN1" s="69"/>
-      <c r="AO1" s="58" t="s">
+      <c r="AO1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58" t="s">
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58" t="s">
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58" t="s">
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57"/>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
+      <c r="CM1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
-      <c r="CS1" s="58"/>
-      <c r="CT1" s="58"/>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58" t="s">
+      <c r="CN1" s="57"/>
+      <c r="CO1" s="57"/>
+      <c r="CP1" s="57"/>
+      <c r="CQ1" s="57"/>
+      <c r="CR1" s="57"/>
+      <c r="CS1" s="57"/>
+      <c r="CT1" s="57"/>
+      <c r="CU1" s="57"/>
+      <c r="CV1" s="57"/>
+      <c r="CW1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="CX1" s="58"/>
-      <c r="CY1" s="58"/>
-      <c r="CZ1" s="58"/>
-      <c r="DA1" s="58"/>
-      <c r="DB1" s="58"/>
-      <c r="DC1" s="58"/>
-      <c r="DD1" s="58"/>
-      <c r="DE1" s="58"/>
-      <c r="DF1" s="58"/>
-      <c r="DG1" s="58" t="s">
+      <c r="CX1" s="57"/>
+      <c r="CY1" s="57"/>
+      <c r="CZ1" s="57"/>
+      <c r="DA1" s="57"/>
+      <c r="DB1" s="57"/>
+      <c r="DC1" s="57"/>
+      <c r="DD1" s="57"/>
+      <c r="DE1" s="57"/>
+      <c r="DF1" s="57"/>
+      <c r="DG1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="DH1" s="58"/>
-      <c r="DI1" s="58"/>
-      <c r="DJ1" s="58"/>
-      <c r="DK1" s="58"/>
-      <c r="DL1" s="58"/>
-      <c r="DM1" s="58"/>
-      <c r="DN1" s="58"/>
-      <c r="DO1" s="58"/>
-      <c r="DP1" s="58"/>
+      <c r="DH1" s="57"/>
+      <c r="DI1" s="57"/>
+      <c r="DJ1" s="57"/>
+      <c r="DK1" s="57"/>
+      <c r="DL1" s="57"/>
+      <c r="DM1" s="57"/>
+      <c r="DN1" s="57"/>
+      <c r="DO1" s="57"/>
+      <c r="DP1" s="57"/>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -52925,23 +52933,9 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="CM2:CQ2"/>
-    <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="CW2:DA2"/>
-    <mergeCell ref="DB2:DF2"/>
-    <mergeCell ref="DG2:DK2"/>
-    <mergeCell ref="DL2:DP2"/>
-    <mergeCell ref="CC2:CG2"/>
-    <mergeCell ref="CH2:CL2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AO1:AX1"/>
+    <mergeCell ref="AY1:BH1"/>
     <mergeCell ref="BD2:BH2"/>
     <mergeCell ref="CM1:CV1"/>
     <mergeCell ref="CW1:DF1"/>
@@ -52958,9 +52952,23 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="AO1:AX1"/>
-    <mergeCell ref="AY1:BH1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="DL2:DP2"/>
+    <mergeCell ref="CC2:CG2"/>
+    <mergeCell ref="CH2:CL2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="CM2:CQ2"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="CW2:DA2"/>
+    <mergeCell ref="DB2:DF2"/>
+    <mergeCell ref="DG2:DK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
